--- a/va_facility_data_2025-02-20/Jesse Brown Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Jesse%20Brown%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jesse Brown Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Jesse%20Brown%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R460e2041c3914f32bb2cbd02a8c2faa0"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rc9bd0b8c5658462eb9f88b0e21521732"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R437cb782ceaf4572960001270b0561c1"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R783f4721e71b49faa0565abe2340c0fd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R49c184be2f8b46afacb4d782aa548893"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Re1da1d595ea7402aa58947562938ff02"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rd75a2a720d64475fb0e7013e492f87e1"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R2042d4e05a9146f3b0e349fd6b2688a3"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R9ba09279c07e44fc9e006bacbd0629cb"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Raebfcc600e0143d895b615a81dd81eaa"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R2f993d2ef06847a6a5a2a1cb63909a3b"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R5eaa60bf48a9474ebe348d79f6336e4f"/>
   </x:sheets>
 </x:workbook>
 </file>
